--- a/doc/ch6/工作項目與時程.xlsx
+++ b/doc/ch6/工作項目與時程.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="4294967295" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>任務名稱</t>
   </si>
@@ -93,9 +93,6 @@
     <t>郭瀚智</t>
   </si>
   <si>
-    <t>Rails 建置</t>
-  </si>
-  <si>
     <t>使用者登入登出頁面</t>
   </si>
   <si>
@@ -115,13 +112,33 @@
   </si>
   <si>
     <t>開發小組測試</t>
+  </si>
+  <si>
+    <t>郭瀚智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rails </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建置</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,6 +159,19 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -193,7 +223,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -216,9 +246,12 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -585,11 +618,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -599,7 +632,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -629,11 +662,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -643,7 +676,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -664,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="256" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="256" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="31.5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -703,7 +736,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -718,7 +751,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -741,7 +774,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -764,7 +797,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -787,7 +820,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -802,7 +835,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -825,7 +858,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -848,7 +881,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -871,7 +904,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -894,7 +927,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -909,7 +942,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="16">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -932,7 +965,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="16">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
@@ -955,7 +988,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="16">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
@@ -978,7 +1011,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="16">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -993,22 +1026,22 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="16">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
+      <c r="C16" s="5">
+        <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
+      <c r="E16" s="7">
+        <v>40110</v>
+      </c>
+      <c r="F16" s="7">
+        <v>40110</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1016,22 +1049,22 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="16">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
+      <c r="E17" s="7">
+        <v>40110</v>
+      </c>
+      <c r="F17" s="7">
+        <v>40110</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1039,22 +1072,22 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="16">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
+      <c r="E18" s="7">
+        <v>40111</v>
+      </c>
+      <c r="F18" s="7">
+        <v>40111</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1062,22 +1095,22 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="16">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7">
+        <v>40111</v>
+      </c>
+      <c r="F19" s="7">
+        <v>40111</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1085,22 +1118,22 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="16">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7">
+        <v>40112</v>
+      </c>
+      <c r="F20" s="7">
+        <v>40112</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1108,10 +1141,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="16">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
@@ -1131,10 +1164,10 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="16">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
@@ -1154,9 +1187,9 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="16">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1169,10 +1202,10 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -1192,7 +1225,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="16">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1205,7 +1238,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="16">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1218,7 +1251,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="16">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1231,7 +1264,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="16">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1244,7 +1277,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="16">
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1257,7 +1290,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="16">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1270,7 +1303,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="16">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1283,7 +1316,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="16">
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1296,7 +1329,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="16">
+    <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1309,7 +1342,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="16">
+    <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1322,7 +1355,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="16">
+    <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1335,7 +1368,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="16">
+    <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1348,7 +1381,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="16">
+    <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1361,7 +1394,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="16">
+    <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1374,7 +1407,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="16">
+    <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1387,7 +1420,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="16">
+    <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1400,7 +1433,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="16">
+    <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1413,7 +1446,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="16">
+    <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1426,7 +1459,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="16">
+    <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1439,7 +1472,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="16">
+    <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1452,7 +1485,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="16">
+    <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1465,7 +1498,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="16">
+    <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1478,7 +1511,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" ht="16">
+    <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1491,7 +1524,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" ht="16">
+    <row r="48" spans="1:11" ht="15.75">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1504,7 +1537,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="16">
+    <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1517,7 +1550,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="16">
+    <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1530,7 +1563,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" ht="16">
+    <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1543,7 +1576,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" ht="16">
+    <row r="52" spans="1:11" ht="15.75">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1556,7 +1589,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" ht="16">
+    <row r="53" spans="1:11" ht="15.75">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1569,7 +1602,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" ht="16">
+    <row r="54" spans="1:11" ht="15.75">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1582,7 +1615,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" ht="16">
+    <row r="55" spans="1:11" ht="15.75">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1595,7 +1628,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" ht="16">
+    <row r="56" spans="1:11" ht="15.75">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1608,7 +1641,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" ht="16">
+    <row r="57" spans="1:11" ht="15.75">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1621,7 +1654,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" ht="16">
+    <row r="58" spans="1:11" ht="15.75">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1634,7 +1667,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" ht="16">
+    <row r="59" spans="1:11" ht="15.75">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1647,7 +1680,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" ht="16">
+    <row r="60" spans="1:11" ht="15.75">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1660,7 +1693,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" ht="16">
+    <row r="61" spans="1:11" ht="15.75">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1674,8 +1707,9 @@
       <c r="K61" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740149736404419" right="0.78740149736404419" top="0.78740149736404419" bottom="0.78740149736404419" header="0.39370083808898926" footer="0.39370083808898926"/>
-  <pageSetup paperSize="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/ch6/工作項目與時程.xlsx
+++ b/doc/ch6/工作項目與時程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>任務名稱</t>
   </si>
@@ -75,9 +75,6 @@
     <t>系統架構</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>編程標準</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
   </si>
   <si>
     <t>個人資訊編輯</t>
-  </si>
-  <si>
-    <t>個人社群網路建置</t>
-  </si>
-  <si>
-    <t>頭像編輯</t>
   </si>
   <si>
     <t>系統測試</t>
@@ -131,6 +122,14 @@
       </rPr>
       <t>建置</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全體</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作小組</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV61"/>
+  <dimension ref="A1:IV59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -947,17 +946,17 @@
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7">
+        <v>40109</v>
+      </c>
+      <c r="F12" s="7">
+        <v>40109</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -968,19 +967,19 @@
     <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7">
+        <v>40110</v>
+      </c>
+      <c r="F13" s="7">
+        <v>40110</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -991,19 +990,19 @@
     <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7">
+        <v>40110</v>
+      </c>
+      <c r="F14" s="7">
+        <v>40110</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1013,7 +1012,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1029,13 +1028,13 @@
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7">
         <v>40110</v>
@@ -1052,13 +1051,13 @@
     <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7">
         <v>40110</v>
@@ -1075,13 +1074,13 @@
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7">
         <v>40111</v>
@@ -1098,13 +1097,13 @@
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="7">
         <v>40111</v>
@@ -1121,13 +1120,13 @@
     <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="7">
         <v>40112</v>
@@ -1142,22 +1141,14 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1167,19 +1158,19 @@
     <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="7">
+        <v>40113</v>
+      </c>
+      <c r="F22" s="7">
+        <v>40115</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1188,14 +1179,12 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1204,21 +1193,11 @@
     </row>
     <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="7">
-        <v>40115</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1680,32 +1659,6 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740149736404419" right="0.78740149736404419" top="0.78740149736404419" bottom="0.78740149736404419" header="0.39370083808898926" footer="0.39370083808898926"/>
